--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Rgmb</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H2">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I2">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J2">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.4625618884189</v>
+        <v>12.55301866666667</v>
       </c>
       <c r="N2">
-        <v>12.4625618884189</v>
+        <v>37.65905600000001</v>
       </c>
       <c r="O2">
-        <v>0.2821147057967092</v>
+        <v>0.2692278546031339</v>
       </c>
       <c r="P2">
-        <v>0.2821147057967092</v>
+        <v>0.3068924341132449</v>
       </c>
       <c r="Q2">
-        <v>23.52903540788959</v>
+        <v>33.54498824294046</v>
       </c>
       <c r="R2">
-        <v>23.52903540788959</v>
+        <v>301.9048941864641</v>
       </c>
       <c r="S2">
-        <v>0.05313931871021886</v>
+        <v>0.05759681411301634</v>
       </c>
       <c r="T2">
-        <v>0.05313931871021886</v>
+        <v>0.08100382402564292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H3">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I3">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J3">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.417889249706739</v>
+        <v>9.354491666666666</v>
       </c>
       <c r="N3">
-        <v>8.417889249706739</v>
+        <v>28.063475</v>
       </c>
       <c r="O3">
-        <v>0.1905555511276651</v>
+        <v>0.200628214551068</v>
       </c>
       <c r="P3">
-        <v>0.1905555511276651</v>
+        <v>0.2286958056629511</v>
       </c>
       <c r="Q3">
-        <v>15.89278480535362</v>
+        <v>24.99767755546111</v>
       </c>
       <c r="R3">
-        <v>15.89278480535362</v>
+        <v>224.97909799915</v>
       </c>
       <c r="S3">
-        <v>0.03589317378822199</v>
+        <v>0.04292106400490445</v>
       </c>
       <c r="T3">
-        <v>0.03589317378822199</v>
+        <v>0.06036393451944279</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H4">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I4">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J4">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.10701935044662</v>
+        <v>4.616516333333333</v>
       </c>
       <c r="N4">
-        <v>4.10701935044662</v>
+        <v>13.849549</v>
       </c>
       <c r="O4">
-        <v>0.09297049564338296</v>
+        <v>0.09901162590190733</v>
       </c>
       <c r="P4">
-        <v>0.09297049564338296</v>
+        <v>0.1128632062359889</v>
       </c>
       <c r="Q4">
-        <v>7.753959786337802</v>
+        <v>12.33655348065622</v>
       </c>
       <c r="R4">
-        <v>7.753959786337802</v>
+        <v>111.028981325906</v>
       </c>
       <c r="S4">
-        <v>0.01751198607207937</v>
+        <v>0.02118188781211381</v>
       </c>
       <c r="T4">
-        <v>0.01751198607207937</v>
+        <v>0.02979008369276486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H5">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I5">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J5">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.77594774497858</v>
+        <v>2.934898</v>
       </c>
       <c r="N5">
-        <v>2.77594774497858</v>
+        <v>8.804694</v>
       </c>
       <c r="O5">
-        <v>0.06283906057143963</v>
+        <v>0.06294552035656671</v>
       </c>
       <c r="P5">
-        <v>0.06283906057143963</v>
+        <v>0.07175150575421439</v>
       </c>
       <c r="Q5">
-        <v>5.240926654313988</v>
+        <v>7.842824225670667</v>
       </c>
       <c r="R5">
-        <v>5.240926654313988</v>
+        <v>70.585418031036</v>
       </c>
       <c r="S5">
-        <v>0.01183640837767143</v>
+        <v>0.0134661453978026</v>
       </c>
       <c r="T5">
-        <v>0.01183640837767143</v>
+        <v>0.01893870848423906</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.88797741736829</v>
+        <v>2.672264666666667</v>
       </c>
       <c r="H6">
-        <v>1.88797741736829</v>
+        <v>8.016794000000001</v>
       </c>
       <c r="I6">
-        <v>0.1883606831488992</v>
+        <v>0.2139333398392942</v>
       </c>
       <c r="J6">
-        <v>0.1883606831488992</v>
+        <v>0.2639485859587926</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.4120948905306</v>
+        <v>17.167078</v>
       </c>
       <c r="N6">
-        <v>16.4120948905306</v>
+        <v>34.334156</v>
       </c>
       <c r="O6">
-        <v>0.3715201868608032</v>
+        <v>0.3681867845873241</v>
       </c>
       <c r="P6">
-        <v>0.3715201868608032</v>
+        <v>0.2797970482336007</v>
       </c>
       <c r="Q6">
-        <v>30.98566452502727</v>
+        <v>45.87497596931067</v>
       </c>
       <c r="R6">
-        <v>30.98566452502727</v>
+        <v>275.249855815864</v>
       </c>
       <c r="S6">
-        <v>0.06997979620070759</v>
+        <v>0.07876742851145703</v>
       </c>
       <c r="T6">
-        <v>0.06997979620070759</v>
+        <v>0.07385203523670301</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H7">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I7">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J7">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.4625618884189</v>
+        <v>12.55301866666667</v>
       </c>
       <c r="N7">
-        <v>12.4625618884189</v>
+        <v>37.65905600000001</v>
       </c>
       <c r="O7">
-        <v>0.2821147057967092</v>
+        <v>0.2692278546031339</v>
       </c>
       <c r="P7">
-        <v>0.2821147057967092</v>
+        <v>0.3068924341132449</v>
       </c>
       <c r="Q7">
-        <v>19.14728829515969</v>
+        <v>21.15924273434667</v>
       </c>
       <c r="R7">
-        <v>19.14728829515969</v>
+        <v>190.43318460912</v>
       </c>
       <c r="S7">
-        <v>0.04324333052819333</v>
+        <v>0.03633046348730897</v>
       </c>
       <c r="T7">
-        <v>0.04324333052819333</v>
+        <v>0.05109495232360347</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H8">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I8">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J8">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.417889249706739</v>
+        <v>9.354491666666666</v>
       </c>
       <c r="N8">
-        <v>8.417889249706739</v>
+        <v>28.063475</v>
       </c>
       <c r="O8">
-        <v>0.1905555511276651</v>
+        <v>0.200628214551068</v>
       </c>
       <c r="P8">
-        <v>0.1905555511276651</v>
+        <v>0.2286958056629511</v>
       </c>
       <c r="Q8">
-        <v>12.93311549775654</v>
+        <v>15.76783760841667</v>
       </c>
       <c r="R8">
-        <v>12.93311549775654</v>
+        <v>141.91053847575</v>
       </c>
       <c r="S8">
-        <v>0.02920888742089738</v>
+        <v>0.0270734097480964</v>
       </c>
       <c r="T8">
-        <v>0.02920888742089738</v>
+        <v>0.03807588584163229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H9">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I9">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J9">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.10701935044662</v>
+        <v>4.616516333333333</v>
       </c>
       <c r="N9">
-        <v>4.10701935044662</v>
+        <v>13.849549</v>
       </c>
       <c r="O9">
-        <v>0.09297049564338296</v>
+        <v>0.09901162590190733</v>
       </c>
       <c r="P9">
-        <v>0.09297049564338296</v>
+        <v>0.1128632062359889</v>
       </c>
       <c r="Q9">
-        <v>6.309961325839209</v>
+        <v>7.781553766303333</v>
       </c>
       <c r="R9">
-        <v>6.309961325839209</v>
+        <v>70.03398389673001</v>
       </c>
       <c r="S9">
-        <v>0.01425077739610575</v>
+        <v>0.01336094389249153</v>
       </c>
       <c r="T9">
-        <v>0.01425077739610575</v>
+        <v>0.01879075369967877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H10">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I10">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J10">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.77594774497858</v>
+        <v>2.934898</v>
       </c>
       <c r="N10">
-        <v>2.77594774497858</v>
+        <v>8.804694</v>
       </c>
       <c r="O10">
-        <v>0.06283906057143963</v>
+        <v>0.06294552035656671</v>
       </c>
       <c r="P10">
-        <v>0.06283906057143963</v>
+        <v>0.07175150575421439</v>
       </c>
       <c r="Q10">
-        <v>4.264923395469419</v>
+        <v>4.94703471982</v>
       </c>
       <c r="R10">
-        <v>4.264923395469419</v>
+        <v>44.52331247838</v>
       </c>
       <c r="S10">
-        <v>0.009632146820201753</v>
+        <v>0.008494068833906203</v>
       </c>
       <c r="T10">
-        <v>0.009632146820201753</v>
+        <v>0.01194600895343519</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.5363846106917</v>
+        <v>1.68559</v>
       </c>
       <c r="H11">
-        <v>1.5363846106917</v>
+        <v>5.05677</v>
       </c>
       <c r="I11">
-        <v>0.1532827946918666</v>
+        <v>0.1349431823867681</v>
       </c>
       <c r="J11">
-        <v>0.1532827946918666</v>
+        <v>0.1664914042968852</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.4120948905306</v>
+        <v>17.167078</v>
       </c>
       <c r="N11">
-        <v>16.4120948905306</v>
+        <v>34.334156</v>
       </c>
       <c r="O11">
-        <v>0.3715201868608032</v>
+        <v>0.3681867845873241</v>
       </c>
       <c r="P11">
-        <v>0.3715201868608032</v>
+        <v>0.2797970482336007</v>
       </c>
       <c r="Q11">
-        <v>25.2152900190231</v>
+        <v>28.93665500602</v>
       </c>
       <c r="R11">
-        <v>25.2152900190231</v>
+        <v>173.61993003612</v>
       </c>
       <c r="S11">
-        <v>0.05694765252646843</v>
+        <v>0.04968429642496496</v>
       </c>
       <c r="T11">
-        <v>0.05694765252646843</v>
+        <v>0.04658380347853552</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>6.59884125304004</v>
+        <v>0.5508483333333333</v>
       </c>
       <c r="H12">
-        <v>6.59884125304004</v>
+        <v>1.652545</v>
       </c>
       <c r="I12">
-        <v>0.658356522159234</v>
+        <v>0.04409923356951998</v>
       </c>
       <c r="J12">
-        <v>0.658356522159234</v>
+        <v>0.05440914609796296</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.4625618884189</v>
+        <v>12.55301866666667</v>
       </c>
       <c r="N12">
-        <v>12.4625618884189</v>
+        <v>37.65905600000001</v>
       </c>
       <c r="O12">
-        <v>0.2821147057967092</v>
+        <v>0.2692278546031339</v>
       </c>
       <c r="P12">
-        <v>0.2821147057967092</v>
+        <v>0.3068924341132449</v>
       </c>
       <c r="Q12">
-        <v>82.23846750786322</v>
+        <v>6.914809410835556</v>
       </c>
       <c r="R12">
-        <v>82.23846750786322</v>
+        <v>62.23328469752001</v>
       </c>
       <c r="S12">
-        <v>0.1857320565582969</v>
+        <v>0.01187274204356437</v>
       </c>
       <c r="T12">
-        <v>0.1857320565582969</v>
+        <v>0.01669775528402702</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>6.59884125304004</v>
+        <v>0.5508483333333333</v>
       </c>
       <c r="H13">
-        <v>6.59884125304004</v>
+        <v>1.652545</v>
       </c>
       <c r="I13">
-        <v>0.658356522159234</v>
+        <v>0.04409923356951998</v>
       </c>
       <c r="J13">
-        <v>0.658356522159234</v>
+        <v>0.05440914609796296</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.417889249706739</v>
+        <v>9.354491666666666</v>
       </c>
       <c r="N13">
-        <v>8.417889249706739</v>
+        <v>28.063475</v>
       </c>
       <c r="O13">
-        <v>0.1905555511276651</v>
+        <v>0.200628214551068</v>
       </c>
       <c r="P13">
-        <v>0.1905555511276651</v>
+        <v>0.2286958056629511</v>
       </c>
       <c r="Q13">
-        <v>55.5483148444871</v>
+        <v>5.152906143763888</v>
       </c>
       <c r="R13">
-        <v>55.5483148444871</v>
+        <v>46.376155293875</v>
       </c>
       <c r="S13">
-        <v>0.1254534899185457</v>
+        <v>0.008847550494123314</v>
       </c>
       <c r="T13">
-        <v>0.1254534899185457</v>
+        <v>0.01244314350230685</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>6.59884125304004</v>
+        <v>0.5508483333333333</v>
       </c>
       <c r="H14">
-        <v>6.59884125304004</v>
+        <v>1.652545</v>
       </c>
       <c r="I14">
-        <v>0.658356522159234</v>
+        <v>0.04409923356951998</v>
       </c>
       <c r="J14">
-        <v>0.658356522159234</v>
+        <v>0.05440914609796296</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.10701935044662</v>
+        <v>4.616516333333333</v>
       </c>
       <c r="N14">
-        <v>4.10701935044662</v>
+        <v>13.849549</v>
       </c>
       <c r="O14">
-        <v>0.09297049564338296</v>
+        <v>0.09901162590190733</v>
       </c>
       <c r="P14">
-        <v>0.09297049564338296</v>
+        <v>0.1128632062359889</v>
       </c>
       <c r="Q14">
-        <v>27.10156871676087</v>
+        <v>2.543000328022778</v>
       </c>
       <c r="R14">
-        <v>27.10156871676087</v>
+        <v>22.887002952205</v>
       </c>
       <c r="S14">
-        <v>0.06120773217519782</v>
+        <v>0.004366336816746146</v>
       </c>
       <c r="T14">
-        <v>0.06120773217519782</v>
+        <v>0.006140790677178446</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>6.59884125304004</v>
+        <v>0.5508483333333333</v>
       </c>
       <c r="H15">
-        <v>6.59884125304004</v>
+        <v>1.652545</v>
       </c>
       <c r="I15">
-        <v>0.658356522159234</v>
+        <v>0.04409923356951998</v>
       </c>
       <c r="J15">
-        <v>0.658356522159234</v>
+        <v>0.05440914609796296</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.77594774497858</v>
+        <v>2.934898</v>
       </c>
       <c r="N15">
-        <v>2.77594774497858</v>
+        <v>8.804694</v>
       </c>
       <c r="O15">
-        <v>0.06283906057143963</v>
+        <v>0.06294552035656671</v>
       </c>
       <c r="P15">
-        <v>0.06283906057143963</v>
+        <v>0.07175150575421439</v>
       </c>
       <c r="Q15">
-        <v>18.31803849584812</v>
+        <v>1.616683671803333</v>
       </c>
       <c r="R15">
-        <v>18.31803849584812</v>
+        <v>14.55015304623</v>
       </c>
       <c r="S15">
-        <v>0.04137050537356644</v>
+        <v>0.00277584920435921</v>
       </c>
       <c r="T15">
-        <v>0.04137050537356644</v>
+        <v>0.003903938159329881</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.5508483333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.652545</v>
+      </c>
+      <c r="I16">
+        <v>0.04409923356951998</v>
+      </c>
+      <c r="J16">
+        <v>0.05440914609796296</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.167078</v>
+      </c>
+      <c r="N16">
+        <v>34.334156</v>
+      </c>
+      <c r="O16">
+        <v>0.3681867845873241</v>
+      </c>
+      <c r="P16">
+        <v>0.2797970482336007</v>
+      </c>
+      <c r="Q16">
+        <v>9.456456304503332</v>
+      </c>
+      <c r="R16">
+        <v>56.73873782702</v>
+      </c>
+      <c r="S16">
+        <v>0.01623675501072695</v>
+      </c>
+      <c r="T16">
+        <v>0.01522351847512077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.481638</v>
+      </c>
+      <c r="H17">
+        <v>1.444914</v>
+      </c>
+      <c r="I17">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J17">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.55301866666667</v>
+      </c>
+      <c r="N17">
+        <v>37.65905600000001</v>
+      </c>
+      <c r="O17">
+        <v>0.2692278546031339</v>
+      </c>
+      <c r="P17">
+        <v>0.3068924341132449</v>
+      </c>
+      <c r="Q17">
+        <v>6.046010804576</v>
+      </c>
+      <c r="R17">
+        <v>54.414097241184</v>
+      </c>
+      <c r="S17">
+        <v>0.0103810130417839</v>
+      </c>
+      <c r="T17">
+        <v>0.01459979630113831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.481638</v>
+      </c>
+      <c r="H18">
+        <v>1.444914</v>
+      </c>
+      <c r="I18">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J18">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.354491666666666</v>
+      </c>
+      <c r="N18">
+        <v>28.063475</v>
+      </c>
+      <c r="O18">
+        <v>0.200628214551068</v>
+      </c>
+      <c r="P18">
+        <v>0.2286958056629511</v>
+      </c>
+      <c r="Q18">
+        <v>4.505478657349999</v>
+      </c>
+      <c r="R18">
+        <v>40.54930791614999</v>
+      </c>
+      <c r="S18">
+        <v>0.007735916162443803</v>
+      </c>
+      <c r="T18">
+        <v>0.01087974745044293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.481638</v>
+      </c>
+      <c r="H19">
+        <v>1.444914</v>
+      </c>
+      <c r="I19">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J19">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.616516333333333</v>
+      </c>
+      <c r="N19">
+        <v>13.849549</v>
+      </c>
+      <c r="O19">
+        <v>0.09901162590190733</v>
+      </c>
+      <c r="P19">
+        <v>0.1128632062359889</v>
+      </c>
+      <c r="Q19">
+        <v>2.223489693754</v>
+      </c>
+      <c r="R19">
+        <v>20.011407243786</v>
+      </c>
+      <c r="S19">
+        <v>0.003817736397636337</v>
+      </c>
+      <c r="T19">
+        <v>0.005369242241829794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.481638</v>
+      </c>
+      <c r="H20">
+        <v>1.444914</v>
+      </c>
+      <c r="I20">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J20">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.934898</v>
+      </c>
+      <c r="N20">
+        <v>8.804694</v>
+      </c>
+      <c r="O20">
+        <v>0.06294552035656671</v>
+      </c>
+      <c r="P20">
+        <v>0.07175150575421439</v>
+      </c>
+      <c r="Q20">
+        <v>1.413558402924</v>
+      </c>
+      <c r="R20">
+        <v>12.722025626316</v>
+      </c>
+      <c r="S20">
+        <v>0.002427082698061163</v>
+      </c>
+      <c r="T20">
+        <v>0.003413434975477204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.481638</v>
+      </c>
+      <c r="H21">
+        <v>1.444914</v>
+      </c>
+      <c r="I21">
+        <v>0.03855846586560088</v>
+      </c>
+      <c r="J21">
+        <v>0.04757300825393079</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.167078</v>
+      </c>
+      <c r="N21">
+        <v>34.334156</v>
+      </c>
+      <c r="O21">
+        <v>0.3681867845873241</v>
+      </c>
+      <c r="P21">
+        <v>0.2797970482336007</v>
+      </c>
+      <c r="Q21">
+        <v>8.268317113763999</v>
+      </c>
+      <c r="R21">
+        <v>49.60990268258399</v>
+      </c>
+      <c r="S21">
+        <v>0.01419671756567568</v>
+      </c>
+      <c r="T21">
+        <v>0.01331078728504256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.100768</v>
+      </c>
+      <c r="H22">
+        <v>14.201536</v>
+      </c>
+      <c r="I22">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J22">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>12.55301866666667</v>
+      </c>
+      <c r="N22">
+        <v>37.65905600000001</v>
+      </c>
+      <c r="O22">
+        <v>0.2692278546031339</v>
+      </c>
+      <c r="P22">
+        <v>0.3068924341132449</v>
+      </c>
+      <c r="Q22">
+        <v>89.13607325166934</v>
+      </c>
+      <c r="R22">
+        <v>534.8164395100162</v>
+      </c>
+      <c r="S22">
+        <v>0.1530468219174603</v>
+      </c>
+      <c r="T22">
+        <v>0.1434961061788332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.100768</v>
+      </c>
+      <c r="H23">
+        <v>14.201536</v>
+      </c>
+      <c r="I23">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J23">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.354491666666666</v>
+      </c>
+      <c r="N23">
+        <v>28.063475</v>
+      </c>
+      <c r="O23">
+        <v>0.200628214551068</v>
+      </c>
+      <c r="P23">
+        <v>0.2286958056629511</v>
+      </c>
+      <c r="Q23">
+        <v>66.42407508293333</v>
+      </c>
+      <c r="R23">
+        <v>398.5444504976001</v>
+      </c>
+      <c r="S23">
+        <v>0.1140502741415</v>
+      </c>
+      <c r="T23">
+        <v>0.1069330943491263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>6.59884125304004</v>
-      </c>
-      <c r="H16">
-        <v>6.59884125304004</v>
-      </c>
-      <c r="I16">
-        <v>0.658356522159234</v>
-      </c>
-      <c r="J16">
-        <v>0.658356522159234</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>16.4120948905306</v>
-      </c>
-      <c r="N16">
-        <v>16.4120948905306</v>
-      </c>
-      <c r="O16">
-        <v>0.3715201868608032</v>
-      </c>
-      <c r="P16">
-        <v>0.3715201868608032</v>
-      </c>
-      <c r="Q16">
-        <v>108.300808812441</v>
-      </c>
-      <c r="R16">
-        <v>108.300808812441</v>
-      </c>
-      <c r="S16">
-        <v>0.2445927381336271</v>
-      </c>
-      <c r="T16">
-        <v>0.2445927381336271</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.100768</v>
+      </c>
+      <c r="H24">
+        <v>14.201536</v>
+      </c>
+      <c r="I24">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J24">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.616516333333333</v>
+      </c>
+      <c r="N24">
+        <v>13.849549</v>
+      </c>
+      <c r="O24">
+        <v>0.09901162590190733</v>
+      </c>
+      <c r="P24">
+        <v>0.1128632062359889</v>
+      </c>
+      <c r="Q24">
+        <v>32.78081145121067</v>
+      </c>
+      <c r="R24">
+        <v>196.684868707264</v>
+      </c>
+      <c r="S24">
+        <v>0.05628472098291951</v>
+      </c>
+      <c r="T24">
+        <v>0.05277233592453705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.100768</v>
+      </c>
+      <c r="H25">
+        <v>14.201536</v>
+      </c>
+      <c r="I25">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J25">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.934898</v>
+      </c>
+      <c r="N25">
+        <v>8.804694</v>
+      </c>
+      <c r="O25">
+        <v>0.06294552035656671</v>
+      </c>
+      <c r="P25">
+        <v>0.07175150575421439</v>
+      </c>
+      <c r="Q25">
+        <v>20.840029801664</v>
+      </c>
+      <c r="R25">
+        <v>125.040178809984</v>
+      </c>
+      <c r="S25">
+        <v>0.03578237422243753</v>
+      </c>
+      <c r="T25">
+        <v>0.03354941518173305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.100768</v>
+      </c>
+      <c r="H26">
+        <v>14.201536</v>
+      </c>
+      <c r="I26">
+        <v>0.5684657783388168</v>
+      </c>
+      <c r="J26">
+        <v>0.4675778553924284</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.167078</v>
+      </c>
+      <c r="N26">
+        <v>34.334156</v>
+      </c>
+      <c r="O26">
+        <v>0.3681867845873241</v>
+      </c>
+      <c r="P26">
+        <v>0.2797970482336007</v>
+      </c>
+      <c r="Q26">
+        <v>121.899438115904</v>
+      </c>
+      <c r="R26">
+        <v>487.597752463616</v>
+      </c>
+      <c r="S26">
+        <v>0.2093015870744995</v>
+      </c>
+      <c r="T26">
+        <v>0.1308269037581989</v>
       </c>
     </row>
   </sheetData>
